--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,15 +554,52 @@
       <c r="C11" s="1" t="str">
         <v>06-02-2026</v>
       </c>
+      <c r="D11" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="str">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>07-02-2026</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>null</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>08-02-2026</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>sunday</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>09-02-2026</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,10 +596,24 @@
       <c r="C14" s="1" t="str">
         <v>09-02-2026</v>
       </c>
+      <c r="D14" s="1" t="str">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>10-02-2026</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,20 @@
         <v>10-02-2026</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>11-02-2026</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,9 @@
       <c r="C15" s="1" t="str">
         <v>10-02-2026</v>
       </c>
+      <c r="D15" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
@@ -622,9 +625,20 @@
         <v>11-02-2026</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <v>12-02-2026</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -624,6 +624,9 @@
       <c r="C16" s="1" t="str">
         <v>11-02-2026</v>
       </c>
+      <c r="D16" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="str">
@@ -636,9 +639,20 @@
         <v>12-02-2026</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="str">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>13-02-2026</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -650,9 +650,45 @@
         <v>13-02-2026</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>14-02-2026</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>null</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>15-02-2026</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>sunday</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>16-02-2026</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -638,6 +638,9 @@
       <c r="C17" s="1" t="str">
         <v>12-02-2026</v>
       </c>
+      <c r="D17" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -652,6 +652,9 @@
       <c r="C18" s="1" t="str">
         <v>13-02-2026</v>
       </c>
+      <c r="D18" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -666,6 +666,9 @@
       <c r="C19" s="1" t="str">
         <v>14-02-2026</v>
       </c>
+      <c r="D19" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,20 @@
         <v>16-02-2026</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>17-02-2026</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -694,6 +694,9 @@
       <c r="C21" s="1" t="str">
         <v>16-02-2026</v>
       </c>
+      <c r="D21" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -708,10 +708,35 @@
       <c r="C22" s="1" t="str">
         <v>17-02-2026</v>
       </c>
+      <c r="D22" s="1" t="str">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>18-02-2026</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>19-02-2026</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -722,6 +722,9 @@
       <c r="C23" s="1" t="str">
         <v>18-02-2026</v>
       </c>
+      <c r="D23" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,9 +737,14 @@
         <v>19-02-2026</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -736,6 +736,9 @@
       <c r="C24" s="1" t="str">
         <v>19-02-2026</v>
       </c>
+      <c r="D24" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,10 +744,85 @@
       <c r="A25" s="1" t="str">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>20-02-20206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>21-02-2026</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="str">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <v>null</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>22-02-2026</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>sunday</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>23-02-2026</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>24-02-2026</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="str">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>25-02-2026</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>26-02-2026</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -750,6 +750,9 @@
       <c r="C25" s="1" t="str">
         <v>20-02-20206</v>
       </c>
+      <c r="D25" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -764,6 +764,9 @@
       <c r="C26" s="1" t="str">
         <v>21-02-2026</v>
       </c>
+      <c r="D26" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -792,6 +792,9 @@
       <c r="C28" s="1" t="str">
         <v>23-02-2026</v>
       </c>
+      <c r="D28" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -806,6 +806,9 @@
       <c r="C29" s="1" t="str">
         <v>24-02-2026</v>
       </c>
+      <c r="D29" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -820,6 +820,9 @@
       <c r="C30" s="1" t="str">
         <v>25-02-2026</v>
       </c>
+      <c r="D30" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="str">
@@ -832,9 +835,31 @@
         <v>26-02-2026</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="str">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <v>27-02-2026</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="str">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <v>28-02-2026</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -834,6 +834,9 @@
       <c r="C31" s="1" t="str">
         <v>26-02-2026</v>
       </c>
+      <c r="D31" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -848,6 +848,9 @@
       <c r="C32" s="1" t="str">
         <v>27-02-2026</v>
       </c>
+      <c r="D32" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">

--- a/Admin_&_References/Attendance_Record.xlsx
+++ b/Admin_&_References/Attendance_Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -711,6 +711,9 @@
       <c r="D22" s="1" t="str">
         <v>no</v>
       </c>
+      <c r="E22" s="1" t="str">
+        <v>*</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
@@ -862,10 +865,13 @@
       <c r="C33" s="1" t="str">
         <v>28-02-2026</v>
       </c>
+      <c r="D33" s="1" t="str">
+        <v>yes</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
   </ignoredErrors>
 </worksheet>
 </file>